--- a/spring_and_jxls/target/classes/templates/test2.xlsx
+++ b/spring_and_jxls/target/classes/templates/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\spring-boot-swagger-3-example-master\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A1B937-D216-4E4E-B8D5-12477B9A8847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1E5CAA-C761-4DCC-BA8B-A83D5A95E9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="1190" windowWidth="25140" windowHeight="14990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -49,7 +48,6 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -64,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +93,6 @@
   </si>
   <si>
     <t>${user.userCode}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${user.userName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,13 +141,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -167,6 +154,12 @@
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,7 +202,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -221,14 +214,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -514,7 +507,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -528,20 +521,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -565,22 +558,20 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
